--- a/app/download_dir/обувь_по каждому размеру.xlsx
+++ b/app/download_dir/обувь_по каждому размеру.xlsx
@@ -151,7 +151,7 @@
     <t xml:space="preserve">здесь ничего заполнять не нужно,. После внесения всех остальных колонок проверьте правильность заполнения данной колонки, если что то не устраивает то правьте наименование ВРУЧНУЮ. Данная информация будет на этикетке</t>
   </si>
   <si>
-    <t xml:space="preserve">Укажите торговую марку или бренд. Если ничего нет т укажите "Без торгового знака"</t>
+    <t xml:space="preserve">Укажите торговую марку или бренд. Если ничего нет т укажите "Без товарного знака"</t>
   </si>
   <si>
     <t xml:space="preserve">не заполнять</t>
@@ -4098,10 +4098,10 @@
   <dimension ref="A1:AC1035"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1502" activeCellId="0" sqref="G1502"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.65"/>
@@ -18063,7 +18063,7 @@
       <selection pane="topLeft" activeCell="A596" activeCellId="0" sqref="A596"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50"/>
@@ -23157,7 +23157,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.76"/>
   </cols>

--- a/app/download_dir/обувь_по каждому размеру.xlsx
+++ b/app/download_dir/обувь_по каждому размеру.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="863">
   <si>
     <t xml:space="preserve">Код ТНВЭД</t>
   </si>
@@ -1806,7 +1806,7 @@
     <t xml:space="preserve">МАЛАВИ</t>
   </si>
   <si>
-    <t xml:space="preserve">МАЛАЙЗИЯ</t>
+    <t xml:space="preserve">МАЛАЙЗИИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">МАЛИ</t>
@@ -1947,9 +1947,15 @@
     <t xml:space="preserve">РЕСПУБЛИКА КОРЕЯ</t>
   </si>
   <si>
+    <t xml:space="preserve">РЕСПУБЛИКА МАКЕДОНИЯ, БЫВШАЯ ЮГОСЛАВСКАЯ РЕСПУБЛИКА</t>
+  </si>
+  <si>
     <t xml:space="preserve">РЕЮНЬОН</t>
   </si>
   <si>
+    <t xml:space="preserve">РОССИЙСКАЯ ФЕДЕРАЦИЯ</t>
+  </si>
+  <si>
     <t xml:space="preserve">РУАНДА</t>
   </si>
   <si>
@@ -1977,13 +1983,7 @@
     <t xml:space="preserve">СЕВЕРНЫЕ МАРИАНСКИЕ ОСТРОВА</t>
   </si>
   <si>
-    <t xml:space="preserve">СЕЙШЕЛЬСКИЕ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕН-БАРТЕЛЕМИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕН-МАРТЕН</t>
+    <t xml:space="preserve">СЕЙШЕЛЬСКИЕ ОСТОРВА</t>
   </si>
   <si>
     <t xml:space="preserve">СЕН-ПЬЕР И МИКЕЛОН</t>
@@ -1995,7 +1995,7 @@
     <t xml:space="preserve">СЕНТ-ВИНСЕНТ И ГРЕНАДИНЫ</t>
   </si>
   <si>
-    <t xml:space="preserve">СЕНТ-КИТС И НЕВИС</t>
+    <t xml:space="preserve">СЕНТ-КИТТС И НЕВИС</t>
   </si>
   <si>
     <t xml:space="preserve">СЕНТ-ЛЮСИЯ</t>
@@ -2007,7 +2007,7 @@
     <t xml:space="preserve">СИНГАПУР</t>
   </si>
   <si>
-    <t xml:space="preserve">СИРИЙСКАЯ АРАБСКАЯ РЕСПУБЛИКА</t>
+    <t xml:space="preserve">СИРИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">СЛОВАКИЯ</t>
@@ -2016,6 +2016,9 @@
     <t xml:space="preserve">СЛОВЕНИЯ</t>
   </si>
   <si>
+    <t xml:space="preserve">СОЕДИНЕННЫЕ ШТАТЫ</t>
+  </si>
+  <si>
     <t xml:space="preserve">СОЛОМОНОВЫ ОСТРОВА</t>
   </si>
   <si>
@@ -2034,13 +2037,16 @@
     <t xml:space="preserve">ТАДЖИКИСТАН</t>
   </si>
   <si>
-    <t xml:space="preserve">ТАЙВАНЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТАЙЛАНД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТАНЗАНИЯ</t>
+    <t xml:space="preserve">ТАИЛАНД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТАЙВАНЬ, ПРОВИНЦИЯ КИТАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТАНЗАНИЯ, ОБЪЕДИНЕННАЯ РЕСПУБЛИКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТЕРКС И КАЙКОС</t>
   </si>
   <si>
     <t xml:space="preserve">ТОГО</t>
@@ -2061,7 +2067,7 @@
     <t xml:space="preserve">ТУНИС</t>
   </si>
   <si>
-    <t xml:space="preserve">ТУРКМЕНИСТАН</t>
+    <t xml:space="preserve">ТУРКМЕНИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">ТУРЦИЯ</t>
@@ -2109,10 +2115,13 @@
     <t xml:space="preserve">ФРАНЦУЗСКИЕ ЮЖНЫЕ ТЕРРИТОРИИ</t>
   </si>
   <si>
+    <t xml:space="preserve">ХЕРДА И МАКДОНАЛЬДА ОСТРОВА</t>
+  </si>
+  <si>
     <t xml:space="preserve">ХОРВАТИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">ЦЕНТРАЛЬНО-АФРИКАНСКАЯ РЕСПУБЛИКА</t>
+    <t xml:space="preserve">ЦЕНТРАЛЬНОАФРИКАНСКАЯ РЕСПУБЛИКА</t>
   </si>
   <si>
     <t xml:space="preserve">ЧАД</t>
@@ -2133,7 +2142,10 @@
     <t xml:space="preserve">ШВЕЦИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">ШРИ-ЛАНКА</t>
+    <t xml:space="preserve">ШПИЦБЕРГЕН И ЯН-МАЙЕН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ШРИ ЛАНКА</t>
   </si>
   <si>
     <t xml:space="preserve">ЭКВАДОР</t>
@@ -2154,7 +2166,10 @@
     <t xml:space="preserve">ЮЖНАЯ АФРИКА</t>
   </si>
   <si>
-    <t xml:space="preserve">ЮЖНАЯ ДЖОРДЖИЯ И ЮЖНЫЕ САНДВИЧЕВЫЕ ОСТРОВА</t>
+    <t xml:space="preserve">ЮЖНАЯ ГЕОРГИЯ И ЮЖНЫЕ САНДВИЧЕВЫ ОСТРОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЮЖНАЯ ОСЕТИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">ЯМАЙКА</t>
@@ -4106,7 +4121,7 @@
       <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.65"/>
@@ -18967,7 +18982,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="U7:U1034" type="list">
-      <formula1>Справочники!$B$675:$B$677</formula1>
+      <formula1>Справочники!$B$679:$B$681</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H9:H1034" type="list">
@@ -19030,13 +19045,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B677"/>
+  <dimension ref="A1:B681"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A664" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B669" activeCellId="0" sqref="B669"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.46"/>
@@ -23717,7 +23732,7 @@
         <v>474</v>
       </c>
       <c r="B601" s="51" t="s">
-        <v>66</v>
+        <v>640</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23725,7 +23740,7 @@
         <v>474</v>
       </c>
       <c r="B602" s="51" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23733,7 +23748,7 @@
         <v>474</v>
       </c>
       <c r="B603" s="51" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23741,7 +23756,7 @@
         <v>474</v>
       </c>
       <c r="B604" s="51" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23749,7 +23764,7 @@
         <v>474</v>
       </c>
       <c r="B605" s="51" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23757,7 +23772,7 @@
         <v>474</v>
       </c>
       <c r="B606" s="51" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23765,7 +23780,7 @@
         <v>474</v>
       </c>
       <c r="B607" s="51" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23773,7 +23788,7 @@
         <v>474</v>
       </c>
       <c r="B608" s="51" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23781,7 +23796,7 @@
         <v>474</v>
       </c>
       <c r="B609" s="51" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23789,7 +23804,7 @@
         <v>474</v>
       </c>
       <c r="B610" s="51" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23797,7 +23812,7 @@
         <v>474</v>
       </c>
       <c r="B611" s="51" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23805,7 +23820,7 @@
         <v>474</v>
       </c>
       <c r="B612" s="51" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23813,7 +23828,7 @@
         <v>474</v>
       </c>
       <c r="B613" s="51" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23821,7 +23836,7 @@
         <v>474</v>
       </c>
       <c r="B614" s="51" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23829,7 +23844,7 @@
         <v>474</v>
       </c>
       <c r="B615" s="51" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23837,7 +23852,7 @@
         <v>474</v>
       </c>
       <c r="B616" s="51" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23845,7 +23860,7 @@
         <v>474</v>
       </c>
       <c r="B617" s="51" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23853,7 +23868,7 @@
         <v>474</v>
       </c>
       <c r="B618" s="51" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23861,7 +23876,7 @@
         <v>474</v>
       </c>
       <c r="B619" s="51" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23869,7 +23884,7 @@
         <v>474</v>
       </c>
       <c r="B620" s="51" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23877,7 +23892,7 @@
         <v>474</v>
       </c>
       <c r="B621" s="51" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23885,7 +23900,7 @@
         <v>474</v>
       </c>
       <c r="B622" s="51" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23893,7 +23908,7 @@
         <v>474</v>
       </c>
       <c r="B623" s="51" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23901,7 +23916,7 @@
         <v>474</v>
       </c>
       <c r="B624" s="51" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23909,7 +23924,7 @@
         <v>474</v>
       </c>
       <c r="B625" s="51" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23917,7 +23932,7 @@
         <v>474</v>
       </c>
       <c r="B626" s="51" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23925,7 +23940,7 @@
         <v>474</v>
       </c>
       <c r="B627" s="51" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23933,7 +23948,7 @@
         <v>474</v>
       </c>
       <c r="B628" s="51" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23941,7 +23956,7 @@
         <v>474</v>
       </c>
       <c r="B629" s="51" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23949,7 +23964,7 @@
         <v>474</v>
       </c>
       <c r="B630" s="51" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23957,7 +23972,7 @@
         <v>474</v>
       </c>
       <c r="B631" s="51" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23965,7 +23980,7 @@
         <v>474</v>
       </c>
       <c r="B632" s="51" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23973,7 +23988,7 @@
         <v>474</v>
       </c>
       <c r="B633" s="51" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23981,7 +23996,7 @@
         <v>474</v>
       </c>
       <c r="B634" s="51" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23989,7 +24004,7 @@
         <v>474</v>
       </c>
       <c r="B635" s="51" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23997,7 +24012,7 @@
         <v>474</v>
       </c>
       <c r="B636" s="51" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24005,7 +24020,7 @@
         <v>474</v>
       </c>
       <c r="B637" s="51" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24013,7 +24028,7 @@
         <v>474</v>
       </c>
       <c r="B638" s="51" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24021,7 +24036,7 @@
         <v>474</v>
       </c>
       <c r="B639" s="51" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24029,7 +24044,7 @@
         <v>474</v>
       </c>
       <c r="B640" s="51" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24037,7 +24052,7 @@
         <v>474</v>
       </c>
       <c r="B641" s="51" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24045,7 +24060,7 @@
         <v>474</v>
       </c>
       <c r="B642" s="51" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24053,7 +24068,7 @@
         <v>474</v>
       </c>
       <c r="B643" s="51" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24061,7 +24076,7 @@
         <v>474</v>
       </c>
       <c r="B644" s="51" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24069,7 +24084,7 @@
         <v>474</v>
       </c>
       <c r="B645" s="51" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24077,7 +24092,7 @@
         <v>474</v>
       </c>
       <c r="B646" s="51" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24085,7 +24100,7 @@
         <v>474</v>
       </c>
       <c r="B647" s="51" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24093,7 +24108,7 @@
         <v>474</v>
       </c>
       <c r="B648" s="51" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24101,7 +24116,7 @@
         <v>474</v>
       </c>
       <c r="B649" s="51" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24109,7 +24124,7 @@
         <v>474</v>
       </c>
       <c r="B650" s="51" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24117,7 +24132,7 @@
         <v>474</v>
       </c>
       <c r="B651" s="51" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24125,7 +24140,7 @@
         <v>474</v>
       </c>
       <c r="B652" s="51" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24133,7 +24148,7 @@
         <v>474</v>
       </c>
       <c r="B653" s="51" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24141,7 +24156,7 @@
         <v>474</v>
       </c>
       <c r="B654" s="51" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24149,7 +24164,7 @@
         <v>474</v>
       </c>
       <c r="B655" s="51" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24157,7 +24172,7 @@
         <v>474</v>
       </c>
       <c r="B656" s="51" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24165,7 +24180,7 @@
         <v>474</v>
       </c>
       <c r="B657" s="51" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24173,7 +24188,7 @@
         <v>474</v>
       </c>
       <c r="B658" s="51" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24181,7 +24196,7 @@
         <v>474</v>
       </c>
       <c r="B659" s="51" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24189,7 +24204,7 @@
         <v>474</v>
       </c>
       <c r="B660" s="51" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24197,7 +24212,7 @@
         <v>474</v>
       </c>
       <c r="B661" s="51" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24205,7 +24220,7 @@
         <v>474</v>
       </c>
       <c r="B662" s="51" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24213,7 +24228,7 @@
         <v>474</v>
       </c>
       <c r="B663" s="51" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24221,7 +24236,7 @@
         <v>474</v>
       </c>
       <c r="B664" s="51" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24229,7 +24244,7 @@
         <v>474</v>
       </c>
       <c r="B665" s="51" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24237,7 +24252,7 @@
         <v>474</v>
       </c>
       <c r="B666" s="51" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24245,7 +24260,7 @@
         <v>474</v>
       </c>
       <c r="B667" s="51" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24253,7 +24268,7 @@
         <v>474</v>
       </c>
       <c r="B668" s="51" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24261,7 +24276,7 @@
         <v>474</v>
       </c>
       <c r="B669" s="51" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24269,7 +24284,7 @@
         <v>474</v>
       </c>
       <c r="B670" s="51" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24277,7 +24292,7 @@
         <v>474</v>
       </c>
       <c r="B671" s="51" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24285,31 +24300,64 @@
         <v>474</v>
       </c>
       <c r="B672" s="51" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="675" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A675" s="7" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A673" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="B673" s="51" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A674" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="B674" s="51" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A675" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="B675" s="51" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A676" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="B676" s="51" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="678" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="679" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A679" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B675" s="52" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="676" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A676" s="7" t="s">
+      <c r="B679" s="52" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="680" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A680" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B676" s="52" t="s">
+      <c r="B680" s="52" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="677" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A677" s="7" t="s">
+    <row r="681" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A681" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B677" s="52" t="s">
-        <v>712</v>
+      <c r="B681" s="52" t="s">
+        <v>717</v>
       </c>
     </row>
   </sheetData>
@@ -24340,17 +24388,17 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.76"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="53" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24358,7 +24406,7 @@
         <v>4203</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24366,7 +24414,7 @@
         <v>4203100001</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24374,7 +24422,7 @@
         <v>4203100009</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24382,7 +24430,7 @@
         <v>6106</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24390,7 +24438,7 @@
         <v>6106100000</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24398,7 +24446,7 @@
         <v>6106200000</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24406,7 +24454,7 @@
         <v>6106901000</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24414,7 +24462,7 @@
         <v>6106903000</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24422,7 +24470,7 @@
         <v>6106905000</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24430,7 +24478,7 @@
         <v>6106909000</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24438,7 +24486,7 @@
         <v>6201</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24446,7 +24494,7 @@
         <v>6201200000</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24454,7 +24502,7 @@
         <v>6201300000</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24462,7 +24510,7 @@
         <v>6201400000</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24470,7 +24518,7 @@
         <v>6201900000</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24478,7 +24526,7 @@
         <v>6202</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24486,7 +24534,7 @@
         <v>6202200000</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24494,7 +24542,7 @@
         <v>6202300000</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24502,7 +24550,7 @@
         <v>6202400001</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24510,7 +24558,7 @@
         <v>6202400009</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24518,7 +24566,7 @@
         <v>6202900001</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24526,7 +24574,7 @@
         <v>6202900009</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24534,7 +24582,7 @@
         <v>6302</v>
       </c>
       <c r="B24" s="56" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24542,7 +24590,7 @@
         <v>6302100001</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24550,7 +24598,7 @@
         <v>6302100009</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24558,7 +24606,7 @@
         <v>6302210000</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24566,7 +24614,7 @@
         <v>6302221000</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24574,7 +24622,7 @@
         <v>6302229000</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24582,7 +24630,7 @@
         <v>6302310001</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24590,7 +24638,7 @@
         <v>6302310009</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24598,7 +24646,7 @@
         <v>6302321000</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24606,7 +24654,7 @@
         <v>6302329000</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24614,7 +24662,7 @@
         <v>6302392001</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24622,7 +24670,7 @@
         <v>6302392009</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24630,7 +24678,7 @@
         <v>6302399000</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24638,7 +24686,7 @@
         <v>6302400000</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24646,7 +24694,7 @@
         <v>6302510001</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24654,7 +24702,7 @@
         <v>6302510009</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24662,7 +24710,7 @@
         <v>6302531000</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24670,7 +24718,7 @@
         <v>6302539000</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24678,7 +24726,7 @@
         <v>6302591000</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24686,7 +24734,7 @@
         <v>6302599000</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24694,7 +24742,7 @@
         <v>6302600000</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24702,7 +24750,7 @@
         <v>6302910000</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24710,7 +24758,7 @@
         <v>6302931000</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24718,7 +24766,7 @@
         <v>6302939000</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24726,7 +24774,7 @@
         <v>6302991000</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24734,7 +24782,7 @@
         <v>6302999000</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24742,7 +24790,7 @@
         <v>4303</v>
       </c>
       <c r="B50" s="56" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24750,7 +24798,7 @@
         <v>4303109010</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24758,7 +24806,7 @@
         <v>4303109020</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24766,7 +24814,7 @@
         <v>4303109030</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24774,7 +24822,7 @@
         <v>4303109040</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24782,7 +24830,7 @@
         <v>4303109050</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24790,7 +24838,7 @@
         <v>4303109060</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24798,7 +24846,7 @@
         <v>4303109080</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24806,7 +24854,7 @@
         <v>3303</v>
       </c>
       <c r="B58" s="58" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24814,7 +24862,7 @@
         <v>3303001000</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24822,7 +24870,7 @@
         <v>3303009000</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24830,7 +24878,7 @@
         <v>4011</v>
       </c>
       <c r="B61" s="56" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24838,7 +24886,7 @@
         <v>4011100003</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24846,7 +24894,7 @@
         <v>4011100009</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24854,7 +24902,7 @@
         <v>4011201000</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24862,7 +24910,7 @@
         <v>4011209000</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24870,7 +24918,7 @@
         <v>4011400000</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24878,7 +24926,7 @@
         <v>4011700000</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24886,7 +24934,7 @@
         <v>4011800000</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24894,7 +24942,7 @@
         <v>4011900000</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24902,7 +24950,7 @@
         <v>6401</v>
       </c>
       <c r="B70" s="56" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24910,7 +24958,7 @@
         <v>6401100000</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24918,7 +24966,7 @@
         <v>6401921000</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24926,7 +24974,7 @@
         <v>6401929000</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24934,7 +24982,7 @@
         <v>6401990000</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24942,7 +24990,7 @@
         <v>6402</v>
       </c>
       <c r="B75" s="56" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24950,7 +24998,7 @@
         <v>6402121000</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24958,7 +25006,7 @@
         <v>6402129000</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24966,7 +25014,7 @@
         <v>6402190000</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24974,7 +25022,7 @@
         <v>6402200000</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24982,7 +25030,7 @@
         <v>6402911000</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24990,7 +25038,7 @@
         <v>6402919000</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24998,7 +25046,7 @@
         <v>6402990500</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25006,7 +25054,7 @@
         <v>6402991000</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25014,7 +25062,7 @@
         <v>6402993100</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25022,7 +25070,7 @@
         <v>6402993900</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25030,7 +25078,7 @@
         <v>6402995000</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25038,7 +25086,7 @@
         <v>6402999100</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25046,7 +25094,7 @@
         <v>6402999300</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25054,7 +25102,7 @@
         <v>6402999600</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25062,7 +25110,7 @@
         <v>6402999800</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25070,7 +25118,7 @@
         <v>6403</v>
       </c>
       <c r="B91" s="56" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25078,7 +25126,7 @@
         <v>6403120000</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25086,7 +25134,7 @@
         <v>6403190000</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25094,7 +25142,7 @@
         <v>6403200000</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25102,7 +25150,7 @@
         <v>6403400000</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25110,7 +25158,7 @@
         <v>6403510500</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25118,7 +25166,7 @@
         <v>6403511100</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25126,7 +25174,7 @@
         <v>6403511500</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25134,7 +25182,7 @@
         <v>6403511900</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25142,7 +25190,7 @@
         <v>6403519100</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25150,7 +25198,7 @@
         <v>6403519500</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25158,7 +25206,7 @@
         <v>6403519900</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25166,7 +25214,7 @@
         <v>6403590500</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25174,7 +25222,7 @@
         <v>6403591100</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25182,7 +25230,7 @@
         <v>6403593100</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25190,7 +25238,7 @@
         <v>6403593500</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25198,7 +25246,7 @@
         <v>6403593900</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25206,7 +25254,7 @@
         <v>6403595000</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25214,7 +25262,7 @@
         <v>6403599100</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25222,7 +25270,7 @@
         <v>6403599500</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25230,7 +25278,7 @@
         <v>6403599900</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25238,7 +25286,7 @@
         <v>6403910500</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25246,7 +25294,7 @@
         <v>6403911100</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25254,7 +25302,7 @@
         <v>6403911300</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25262,7 +25310,7 @@
         <v>6403911600</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25270,7 +25318,7 @@
         <v>6403911800</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25278,7 +25326,7 @@
         <v>6403919100</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25286,7 +25334,7 @@
         <v>6403919300</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25294,7 +25342,7 @@
         <v>6403919600</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25302,7 +25350,7 @@
         <v>6403919800</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25310,7 +25358,7 @@
         <v>6403990500</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25318,7 +25366,7 @@
         <v>6403991100</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25326,7 +25374,7 @@
         <v>6403993100</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25334,7 +25382,7 @@
         <v>6403993300</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25342,7 +25390,7 @@
         <v>6403993600</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25350,7 +25398,7 @@
         <v>6403993800</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25358,7 +25406,7 @@
         <v>6403995000</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25366,7 +25414,7 @@
         <v>6403999100</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25374,7 +25422,7 @@
         <v>6403999300</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25382,7 +25430,7 @@
         <v>6403999600</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25390,7 +25438,7 @@
         <v>6403999800</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25398,7 +25446,7 @@
         <v>6404</v>
       </c>
       <c r="B132" s="56" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25406,7 +25454,7 @@
         <v>6404110000</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25414,7 +25462,7 @@
         <v>6404191000</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25422,7 +25470,7 @@
         <v>6404199000</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25430,7 +25478,7 @@
         <v>6404191000</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25438,7 +25486,7 @@
         <v>6404209000</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25446,7 +25494,7 @@
         <v>6405</v>
       </c>
       <c r="B138" s="56" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25454,7 +25502,7 @@
         <v>6405100001</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25462,7 +25510,7 @@
         <v>6405100009</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25470,7 +25518,7 @@
         <v>6405201000</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25478,7 +25526,7 @@
         <v>6405209100</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25486,7 +25534,7 @@
         <v>6405209900</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25494,7 +25542,7 @@
         <v>6405901000</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25502,7 +25550,7 @@
         <v>6405909000</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
     </row>
   </sheetData>

--- a/app/download_dir/обувь_по каждому размеру.xlsx
+++ b/app/download_dir/обувь_по каждому размеру.xlsx
@@ -1746,7 +1746,7 @@
     <t xml:space="preserve">КОМОРСКИЕ ОСТРОВА</t>
   </si>
   <si>
-    <t xml:space="preserve">КОРЕЯ, ДЕМОКРАТИЧЕСКАЯ НАРОДНАЯ РЕСПУБЛИКА</t>
+    <t xml:space="preserve">СЕВЕРНАЯ КОРЕЯ</t>
   </si>
   <si>
     <t xml:space="preserve">КОСТА-РИКА</t>
@@ -1944,7 +1944,7 @@
     <t xml:space="preserve">РЕСПУБЛИКА КОНГО</t>
   </si>
   <si>
-    <t xml:space="preserve">РЕСПУБЛИКА КОРЕЯ</t>
+    <t xml:space="preserve">ЮЖНАЯ КОРЕЯ</t>
   </si>
   <si>
     <t xml:space="preserve">РЕСПУБЛИКА МАКЕДОНИЯ, БЫВШАЯ ЮГОСЛАВСКАЯ РЕСПУБЛИКА</t>
@@ -2016,7 +2016,7 @@
     <t xml:space="preserve">СЛОВЕНИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">СОЕДИНЕННЫЕ ШТАТЫ</t>
+    <t xml:space="preserve">США</t>
   </si>
   <si>
     <t xml:space="preserve">СОЛОМОНОВЫ ОСТРОВА</t>
@@ -4121,7 +4121,7 @@
       <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.65"/>
@@ -19047,11 +19047,11 @@
   </sheetPr>
   <dimension ref="A1:B681"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A664" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B669" activeCellId="0" sqref="B669"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A661" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B435" activeCellId="0" sqref="B435"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.46"/>
@@ -24388,7 +24388,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.76"/>
   </cols>

--- a/app/download_dir/обувь_по каждому размеру.xlsx
+++ b/app/download_dir/обувь_по каждому размеру.xlsx
@@ -1887,7 +1887,7 @@
     <t xml:space="preserve">НОРВЕГИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">ОБЪЕДИНЕННЫЕ АРАБСКИЕ ЭМИРАТЫ</t>
+    <t xml:space="preserve">ОАЭ</t>
   </si>
   <si>
     <t xml:space="preserve">ОМАН</t>
@@ -4121,7 +4121,7 @@
       <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.65"/>
@@ -19047,11 +19047,11 @@
   </sheetPr>
   <dimension ref="A1:B681"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A661" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B435" activeCellId="0" sqref="B435"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A559" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B580" activeCellId="0" sqref="B580"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.46"/>
@@ -24388,7 +24388,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.76"/>
   </cols>

--- a/app/download_dir/обувь_по каждому размеру.xlsx
+++ b/app/download_dir/обувь_по каждому размеру.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="862">
   <si>
     <t xml:space="preserve">Код ТНВЭД</t>
   </si>
@@ -1951,9 +1951,6 @@
   </si>
   <si>
     <t xml:space="preserve">РЕЮНЬОН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РОССИЙСКАЯ ФЕДЕРАЦИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">РУАНДА</t>
@@ -3254,7 +3251,7 @@
     <numFmt numFmtId="167" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="168" formatCode="General"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3463,6 +3460,12 @@
       <name val="Arial1"/>
       <family val="0"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3758,7 +3761,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3967,7 +3970,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3975,19 +3978,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="32" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="32" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4121,7 +4128,7 @@
       <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.65"/>
@@ -19047,11 +19054,11 @@
   </sheetPr>
   <dimension ref="A1:B681"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A559" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B580" activeCellId="0" sqref="B580"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A574" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B602" activeCellId="0" sqref="B602"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.46"/>
@@ -23739,8 +23746,8 @@
       <c r="A602" s="0" t="s">
         <v>474</v>
       </c>
-      <c r="B602" s="51" t="s">
-        <v>641</v>
+      <c r="B602" s="52" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23748,7 +23755,7 @@
         <v>474</v>
       </c>
       <c r="B603" s="51" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23756,7 +23763,7 @@
         <v>474</v>
       </c>
       <c r="B604" s="51" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23764,7 +23771,7 @@
         <v>474</v>
       </c>
       <c r="B605" s="51" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23772,7 +23779,7 @@
         <v>474</v>
       </c>
       <c r="B606" s="51" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23780,7 +23787,7 @@
         <v>474</v>
       </c>
       <c r="B607" s="51" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23788,7 +23795,7 @@
         <v>474</v>
       </c>
       <c r="B608" s="51" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23796,7 +23803,7 @@
         <v>474</v>
       </c>
       <c r="B609" s="51" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23804,7 +23811,7 @@
         <v>474</v>
       </c>
       <c r="B610" s="51" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23812,7 +23819,7 @@
         <v>474</v>
       </c>
       <c r="B611" s="51" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23820,7 +23827,7 @@
         <v>474</v>
       </c>
       <c r="B612" s="51" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23828,7 +23835,7 @@
         <v>474</v>
       </c>
       <c r="B613" s="51" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23836,7 +23843,7 @@
         <v>474</v>
       </c>
       <c r="B614" s="51" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23844,7 +23851,7 @@
         <v>474</v>
       </c>
       <c r="B615" s="51" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23852,7 +23859,7 @@
         <v>474</v>
       </c>
       <c r="B616" s="51" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23860,7 +23867,7 @@
         <v>474</v>
       </c>
       <c r="B617" s="51" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23868,7 +23875,7 @@
         <v>474</v>
       </c>
       <c r="B618" s="51" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23876,7 +23883,7 @@
         <v>474</v>
       </c>
       <c r="B619" s="51" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23884,7 +23891,7 @@
         <v>474</v>
       </c>
       <c r="B620" s="51" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23892,7 +23899,7 @@
         <v>474</v>
       </c>
       <c r="B621" s="51" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23900,7 +23907,7 @@
         <v>474</v>
       </c>
       <c r="B622" s="51" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23908,7 +23915,7 @@
         <v>474</v>
       </c>
       <c r="B623" s="51" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23916,7 +23923,7 @@
         <v>474</v>
       </c>
       <c r="B624" s="51" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23924,7 +23931,7 @@
         <v>474</v>
       </c>
       <c r="B625" s="51" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23932,7 +23939,7 @@
         <v>474</v>
       </c>
       <c r="B626" s="51" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23940,7 +23947,7 @@
         <v>474</v>
       </c>
       <c r="B627" s="51" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23948,7 +23955,7 @@
         <v>474</v>
       </c>
       <c r="B628" s="51" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23956,7 +23963,7 @@
         <v>474</v>
       </c>
       <c r="B629" s="51" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23964,7 +23971,7 @@
         <v>474</v>
       </c>
       <c r="B630" s="51" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23972,7 +23979,7 @@
         <v>474</v>
       </c>
       <c r="B631" s="51" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23980,7 +23987,7 @@
         <v>474</v>
       </c>
       <c r="B632" s="51" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23988,7 +23995,7 @@
         <v>474</v>
       </c>
       <c r="B633" s="51" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23996,7 +24003,7 @@
         <v>474</v>
       </c>
       <c r="B634" s="51" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24004,7 +24011,7 @@
         <v>474</v>
       </c>
       <c r="B635" s="51" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24012,7 +24019,7 @@
         <v>474</v>
       </c>
       <c r="B636" s="51" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24020,7 +24027,7 @@
         <v>474</v>
       </c>
       <c r="B637" s="51" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24028,7 +24035,7 @@
         <v>474</v>
       </c>
       <c r="B638" s="51" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24036,7 +24043,7 @@
         <v>474</v>
       </c>
       <c r="B639" s="51" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24044,7 +24051,7 @@
         <v>474</v>
       </c>
       <c r="B640" s="51" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24052,7 +24059,7 @@
         <v>474</v>
       </c>
       <c r="B641" s="51" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24060,7 +24067,7 @@
         <v>474</v>
       </c>
       <c r="B642" s="51" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24068,7 +24075,7 @@
         <v>474</v>
       </c>
       <c r="B643" s="51" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24076,7 +24083,7 @@
         <v>474</v>
       </c>
       <c r="B644" s="51" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24084,7 +24091,7 @@
         <v>474</v>
       </c>
       <c r="B645" s="51" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24092,7 +24099,7 @@
         <v>474</v>
       </c>
       <c r="B646" s="51" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24100,7 +24107,7 @@
         <v>474</v>
       </c>
       <c r="B647" s="51" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24108,7 +24115,7 @@
         <v>474</v>
       </c>
       <c r="B648" s="51" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24116,7 +24123,7 @@
         <v>474</v>
       </c>
       <c r="B649" s="51" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24124,7 +24131,7 @@
         <v>474</v>
       </c>
       <c r="B650" s="51" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24132,7 +24139,7 @@
         <v>474</v>
       </c>
       <c r="B651" s="51" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24140,7 +24147,7 @@
         <v>474</v>
       </c>
       <c r="B652" s="51" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24148,7 +24155,7 @@
         <v>474</v>
       </c>
       <c r="B653" s="51" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24156,7 +24163,7 @@
         <v>474</v>
       </c>
       <c r="B654" s="51" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24164,7 +24171,7 @@
         <v>474</v>
       </c>
       <c r="B655" s="51" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24172,7 +24179,7 @@
         <v>474</v>
       </c>
       <c r="B656" s="51" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24180,7 +24187,7 @@
         <v>474</v>
       </c>
       <c r="B657" s="51" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24188,7 +24195,7 @@
         <v>474</v>
       </c>
       <c r="B658" s="51" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24196,7 +24203,7 @@
         <v>474</v>
       </c>
       <c r="B659" s="51" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24204,7 +24211,7 @@
         <v>474</v>
       </c>
       <c r="B660" s="51" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24212,7 +24219,7 @@
         <v>474</v>
       </c>
       <c r="B661" s="51" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24220,7 +24227,7 @@
         <v>474</v>
       </c>
       <c r="B662" s="51" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24228,7 +24235,7 @@
         <v>474</v>
       </c>
       <c r="B663" s="51" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24236,7 +24243,7 @@
         <v>474</v>
       </c>
       <c r="B664" s="51" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24244,7 +24251,7 @@
         <v>474</v>
       </c>
       <c r="B665" s="51" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24252,7 +24259,7 @@
         <v>474</v>
       </c>
       <c r="B666" s="51" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24260,7 +24267,7 @@
         <v>474</v>
       </c>
       <c r="B667" s="51" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24268,7 +24275,7 @@
         <v>474</v>
       </c>
       <c r="B668" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24276,7 +24283,7 @@
         <v>474</v>
       </c>
       <c r="B669" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24284,7 +24291,7 @@
         <v>474</v>
       </c>
       <c r="B670" s="51" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24292,7 +24299,7 @@
         <v>474</v>
       </c>
       <c r="B671" s="51" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24300,7 +24307,7 @@
         <v>474</v>
       </c>
       <c r="B672" s="51" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24308,7 +24315,7 @@
         <v>474</v>
       </c>
       <c r="B673" s="51" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24316,7 +24323,7 @@
         <v>474</v>
       </c>
       <c r="B674" s="51" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24324,7 +24331,7 @@
         <v>474</v>
       </c>
       <c r="B675" s="51" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24332,7 +24339,7 @@
         <v>474</v>
       </c>
       <c r="B676" s="51" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -24340,15 +24347,15 @@
       <c r="A679" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B679" s="52" t="s">
-        <v>716</v>
+      <c r="B679" s="53" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B680" s="52" t="s">
+      <c r="B680" s="53" t="s">
         <v>67</v>
       </c>
     </row>
@@ -24356,8 +24363,8 @@
       <c r="A681" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B681" s="52" t="s">
-        <v>717</v>
+      <c r="B681" s="53" t="s">
+        <v>716</v>
       </c>
     </row>
   </sheetData>
@@ -24388,25 +24395,25 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.76"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
+        <v>717</v>
+      </c>
+      <c r="B1" s="55" t="s">
         <v>718</v>
       </c>
-      <c r="B1" s="54" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="56" t="n">
+        <v>4203</v>
+      </c>
+      <c r="B2" s="57" t="s">
         <v>719</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="55" t="n">
-        <v>4203</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24414,7 +24421,7 @@
         <v>4203100001</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24422,31 +24429,31 @@
         <v>4203100009</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="56" t="n">
+        <v>6106</v>
+      </c>
+      <c r="B5" s="57" t="s">
         <v>722</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="55" t="n">
-        <v>6106</v>
-      </c>
-      <c r="B5" s="56" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="n">
         <v>6106100000</v>
       </c>
-      <c r="B6" s="57" t="s">
-        <v>724</v>
+      <c r="B6" s="58" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="n">
         <v>6106200000</v>
       </c>
-      <c r="B7" s="57" t="s">
-        <v>725</v>
+      <c r="B7" s="58" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24454,7 +24461,7 @@
         <v>6106901000</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24462,7 +24469,7 @@
         <v>6106903000</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24470,7 +24477,7 @@
         <v>6106905000</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24478,15 +24485,15 @@
         <v>6106909000</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="56" t="n">
+        <v>6201</v>
+      </c>
+      <c r="B12" s="57" t="s">
         <v>729</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="55" t="n">
-        <v>6201</v>
-      </c>
-      <c r="B12" s="56" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24494,7 +24501,7 @@
         <v>6201200000</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24502,7 +24509,7 @@
         <v>6201300000</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24510,7 +24517,7 @@
         <v>6201400000</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24518,15 +24525,15 @@
         <v>6201900000</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="56" t="n">
+        <v>6202</v>
+      </c>
+      <c r="B17" s="57" t="s">
         <v>734</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="55" t="n">
-        <v>6202</v>
-      </c>
-      <c r="B17" s="56" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24534,7 +24541,7 @@
         <v>6202200000</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24542,7 +24549,7 @@
         <v>6202300000</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24550,7 +24557,7 @@
         <v>6202400001</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24558,7 +24565,7 @@
         <v>6202400009</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24566,7 +24573,7 @@
         <v>6202900001</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24574,15 +24581,15 @@
         <v>6202900009</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="56" t="n">
+        <v>6302</v>
+      </c>
+      <c r="B24" s="57" t="s">
         <v>741</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="55" t="n">
-        <v>6302</v>
-      </c>
-      <c r="B24" s="56" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24590,7 +24597,7 @@
         <v>6302100001</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24598,7 +24605,7 @@
         <v>6302100009</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24606,7 +24613,7 @@
         <v>6302210000</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24614,7 +24621,7 @@
         <v>6302221000</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24622,7 +24629,7 @@
         <v>6302229000</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24630,7 +24637,7 @@
         <v>6302310001</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24638,7 +24645,7 @@
         <v>6302310009</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24646,7 +24653,7 @@
         <v>6302321000</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24654,7 +24661,7 @@
         <v>6302329000</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24662,7 +24669,7 @@
         <v>6302392001</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24670,7 +24677,7 @@
         <v>6302392009</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24678,7 +24685,7 @@
         <v>6302399000</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24686,7 +24693,7 @@
         <v>6302400000</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24694,7 +24701,7 @@
         <v>6302510001</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24702,7 +24709,7 @@
         <v>6302510009</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24710,7 +24717,7 @@
         <v>6302531000</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24718,7 +24725,7 @@
         <v>6302539000</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24726,7 +24733,7 @@
         <v>6302591000</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24734,7 +24741,7 @@
         <v>6302599000</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24742,7 +24749,7 @@
         <v>6302600000</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24750,7 +24757,7 @@
         <v>6302910000</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24758,7 +24765,7 @@
         <v>6302931000</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24766,7 +24773,7 @@
         <v>6302939000</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24774,7 +24781,7 @@
         <v>6302991000</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24782,15 +24789,15 @@
         <v>6302999000</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="56" t="n">
+        <v>4303</v>
+      </c>
+      <c r="B50" s="57" t="s">
         <v>767</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="55" t="n">
-        <v>4303</v>
-      </c>
-      <c r="B50" s="56" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24798,7 +24805,7 @@
         <v>4303109010</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24806,7 +24813,7 @@
         <v>4303109020</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24814,7 +24821,7 @@
         <v>4303109030</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24822,7 +24829,7 @@
         <v>4303109040</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24830,7 +24837,7 @@
         <v>4303109050</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24838,7 +24845,7 @@
         <v>4303109060</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24846,15 +24853,15 @@
         <v>4303109080</v>
       </c>
       <c r="B57" s="7" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="56" t="n">
+        <v>3303</v>
+      </c>
+      <c r="B58" s="59" t="s">
         <v>775</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="55" t="n">
-        <v>3303</v>
-      </c>
-      <c r="B58" s="58" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24862,7 +24869,7 @@
         <v>3303001000</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24870,15 +24877,15 @@
         <v>3303009000</v>
       </c>
       <c r="B60" s="7" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="56" t="n">
+        <v>4011</v>
+      </c>
+      <c r="B61" s="57" t="s">
         <v>778</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="55" t="n">
-        <v>4011</v>
-      </c>
-      <c r="B61" s="56" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24886,7 +24893,7 @@
         <v>4011100003</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24894,7 +24901,7 @@
         <v>4011100009</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24902,7 +24909,7 @@
         <v>4011201000</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24910,7 +24917,7 @@
         <v>4011209000</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24918,7 +24925,7 @@
         <v>4011400000</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24926,7 +24933,7 @@
         <v>4011700000</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24934,7 +24941,7 @@
         <v>4011800000</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24942,15 +24949,15 @@
         <v>4011900000</v>
       </c>
       <c r="B69" s="7" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="56" t="n">
+        <v>6401</v>
+      </c>
+      <c r="B70" s="57" t="s">
         <v>787</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="55" t="n">
-        <v>6401</v>
-      </c>
-      <c r="B70" s="56" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24958,7 +24965,7 @@
         <v>6401100000</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24966,7 +24973,7 @@
         <v>6401921000</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24974,7 +24981,7 @@
         <v>6401929000</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24982,15 +24989,15 @@
         <v>6401990000</v>
       </c>
       <c r="B74" s="7" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="56" t="n">
+        <v>6402</v>
+      </c>
+      <c r="B75" s="57" t="s">
         <v>792</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="55" t="n">
-        <v>6402</v>
-      </c>
-      <c r="B75" s="56" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24998,7 +25005,7 @@
         <v>6402121000</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25006,7 +25013,7 @@
         <v>6402129000</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25014,7 +25021,7 @@
         <v>6402190000</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25022,7 +25029,7 @@
         <v>6402200000</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25030,7 +25037,7 @@
         <v>6402911000</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25038,7 +25045,7 @@
         <v>6402919000</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25046,7 +25053,7 @@
         <v>6402990500</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25054,7 +25061,7 @@
         <v>6402991000</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25062,7 +25069,7 @@
         <v>6402993100</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25070,7 +25077,7 @@
         <v>6402993900</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25078,7 +25085,7 @@
         <v>6402995000</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25086,7 +25093,7 @@
         <v>6402999100</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25094,7 +25101,7 @@
         <v>6402999300</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25102,7 +25109,7 @@
         <v>6402999600</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25110,15 +25117,15 @@
         <v>6402999800</v>
       </c>
       <c r="B90" s="7" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="56" t="n">
+        <v>6403</v>
+      </c>
+      <c r="B91" s="57" t="s">
         <v>807</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="55" t="n">
-        <v>6403</v>
-      </c>
-      <c r="B91" s="56" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25126,7 +25133,7 @@
         <v>6403120000</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25134,7 +25141,7 @@
         <v>6403190000</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25142,7 +25149,7 @@
         <v>6403200000</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25150,7 +25157,7 @@
         <v>6403400000</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25158,7 +25165,7 @@
         <v>6403510500</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25166,7 +25173,7 @@
         <v>6403511100</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25174,7 +25181,7 @@
         <v>6403511500</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25182,7 +25189,7 @@
         <v>6403511900</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25190,7 +25197,7 @@
         <v>6403519100</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25198,7 +25205,7 @@
         <v>6403519500</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25206,7 +25213,7 @@
         <v>6403519900</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25214,7 +25221,7 @@
         <v>6403590500</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25222,7 +25229,7 @@
         <v>6403591100</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25230,7 +25237,7 @@
         <v>6403593100</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25238,7 +25245,7 @@
         <v>6403593500</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25246,7 +25253,7 @@
         <v>6403593900</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25254,7 +25261,7 @@
         <v>6403595000</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25262,7 +25269,7 @@
         <v>6403599100</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25270,7 +25277,7 @@
         <v>6403599500</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25278,23 +25285,23 @@
         <v>6403599900</v>
       </c>
       <c r="B111" s="7" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="60" t="n">
+        <v>6403910500</v>
+      </c>
+      <c r="B112" s="7" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="59" t="n">
-        <v>6403910500</v>
-      </c>
-      <c r="B112" s="7" t="s">
+    <row r="113" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="60" t="n">
+        <v>6403911100</v>
+      </c>
+      <c r="B113" s="7" t="s">
         <v>829</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="59" t="n">
-        <v>6403911100</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25302,7 +25309,7 @@
         <v>6403911300</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25310,7 +25317,7 @@
         <v>6403911600</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25318,7 +25325,7 @@
         <v>6403911800</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25326,7 +25333,7 @@
         <v>6403919100</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25334,7 +25341,7 @@
         <v>6403919300</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25342,7 +25349,7 @@
         <v>6403919600</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25350,7 +25357,7 @@
         <v>6403919800</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25358,7 +25365,7 @@
         <v>6403990500</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25366,7 +25373,7 @@
         <v>6403991100</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25374,7 +25381,7 @@
         <v>6403993100</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25382,7 +25389,7 @@
         <v>6403993300</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25390,7 +25397,7 @@
         <v>6403993600</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25398,7 +25405,7 @@
         <v>6403993800</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25406,7 +25413,7 @@
         <v>6403995000</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25414,7 +25421,7 @@
         <v>6403999100</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25422,7 +25429,7 @@
         <v>6403999300</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25430,7 +25437,7 @@
         <v>6403999600</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25438,15 +25445,15 @@
         <v>6403999800</v>
       </c>
       <c r="B131" s="7" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="56" t="n">
+        <v>6404</v>
+      </c>
+      <c r="B132" s="57" t="s">
         <v>848</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="55" t="n">
-        <v>6404</v>
-      </c>
-      <c r="B132" s="56" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25454,7 +25461,7 @@
         <v>6404110000</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25462,7 +25469,7 @@
         <v>6404191000</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25470,7 +25477,7 @@
         <v>6404199000</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25478,7 +25485,7 @@
         <v>6404191000</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25486,15 +25493,15 @@
         <v>6404209000</v>
       </c>
       <c r="B137" s="7" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="56" t="n">
+        <v>6405</v>
+      </c>
+      <c r="B138" s="57" t="s">
         <v>854</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="55" t="n">
-        <v>6405</v>
-      </c>
-      <c r="B138" s="56" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25502,7 +25509,7 @@
         <v>6405100001</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25510,7 +25517,7 @@
         <v>6405100009</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25518,7 +25525,7 @@
         <v>6405201000</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25526,7 +25533,7 @@
         <v>6405209100</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25534,7 +25541,7 @@
         <v>6405209900</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25542,7 +25549,7 @@
         <v>6405901000</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25550,7 +25557,7 @@
         <v>6405909000</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
   </sheetData>

--- a/app/download_dir/обувь_по каждому размеру.xlsx
+++ b/app/download_dir/обувь_по каждому размеру.xlsx
@@ -1524,7 +1524,7 @@
     <t xml:space="preserve">БЕЛИЗ</t>
   </si>
   <si>
-    <t xml:space="preserve">БЕЛОРУССИЯ</t>
+    <t xml:space="preserve">РЕСПУБЛИКА БЕЛАРУСЬ</t>
   </si>
   <si>
     <t xml:space="preserve">БЕЛЬГИЯ</t>
@@ -3466,6 +3466,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4125,10 +4126,10 @@
   <dimension ref="A1:AC1035"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="T1638" activeCellId="0" sqref="T1638"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.65"/>
@@ -18975,7 +18976,7 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="U6:W6"/>
   </mergeCells>
-  <dataValidations count="15">
+  <dataValidations count="17">
     <dataValidation allowBlank="true" errorStyle="stop" operator="lessThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5 B34" type="textLength">
       <formula1>51</formula1>
       <formula2>0</formula2>
@@ -19012,10 +19013,6 @@
       <formula1>Справочники!$B$427:$B$432</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T7:T1034" type="list">
-      <formula1>Справочники!$B$435:$B$672</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G7" type="list">
       <formula1>Справочники!$B$130:$B$240</formula1>
       <formula2>0</formula2>
@@ -19036,6 +19033,18 @@
       <formula1>Справочники!$B$11:$B$127</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T7" type="list">
+      <formula1>Справочники!$B$435:$B$676</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T8" type="list">
+      <formula1>Справочники!$B$435:$B$676</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T9:T1034" type="list">
+      <formula1>Справочники!$B$435:$B$676</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -19054,11 +19063,11 @@
   </sheetPr>
   <dimension ref="A1:B681"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A574" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B602" activeCellId="0" sqref="B602"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A427" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B458" activeCellId="0" sqref="B458"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.46"/>
@@ -24395,7 +24404,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.76"/>
   </cols>

--- a/app/download_dir/обувь_по каждому размеру.xlsx
+++ b/app/download_dir/обувь_по каждому размеру.xlsx
@@ -1524,7 +1524,7 @@
     <t xml:space="preserve">БЕЛИЗ</t>
   </si>
   <si>
-    <t xml:space="preserve">РЕСПУБЛИКА БЕЛАРУСЬ</t>
+    <t xml:space="preserve">БЕЛОРУССИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">БЕЛЬГИЯ</t>
@@ -3251,7 +3251,7 @@
     <numFmt numFmtId="167" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="168" formatCode="General"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3460,6 +3460,12 @@
       <name val="Arial1"/>
       <family val="0"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3762,7 +3768,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3975,7 +3981,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="13" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3983,19 +3989,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="33" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="33" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4129,7 +4139,7 @@
       <selection pane="topLeft" activeCell="T1638" activeCellId="0" sqref="T1638"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.65"/>
@@ -19067,7 +19077,7 @@
       <selection pane="topLeft" activeCell="B458" activeCellId="0" sqref="B458"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.46"/>
@@ -22603,7 +22613,7 @@
       <c r="A458" s="0" t="s">
         <v>474</v>
       </c>
-      <c r="B458" s="51" t="s">
+      <c r="B458" s="52" t="s">
         <v>498</v>
       </c>
     </row>
@@ -23755,7 +23765,7 @@
       <c r="A602" s="0" t="s">
         <v>474</v>
       </c>
-      <c r="B602" s="52" t="s">
+      <c r="B602" s="53" t="s">
         <v>66</v>
       </c>
     </row>
@@ -24356,7 +24366,7 @@
       <c r="A679" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B679" s="53" t="s">
+      <c r="B679" s="54" t="s">
         <v>715</v>
       </c>
     </row>
@@ -24364,7 +24374,7 @@
       <c r="A680" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B680" s="53" t="s">
+      <c r="B680" s="54" t="s">
         <v>67</v>
       </c>
     </row>
@@ -24372,7 +24382,7 @@
       <c r="A681" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B681" s="53" t="s">
+      <c r="B681" s="54" t="s">
         <v>716</v>
       </c>
     </row>
@@ -24404,24 +24414,24 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.76"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>717</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="56" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="56" t="n">
+      <c r="A2" s="57" t="n">
         <v>4203</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="58" t="s">
         <v>719</v>
       </c>
     </row>
@@ -24442,10 +24452,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="56" t="n">
+      <c r="A5" s="57" t="n">
         <v>6106</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="58" t="s">
         <v>722</v>
       </c>
     </row>
@@ -24453,7 +24463,7 @@
       <c r="A6" s="8" t="n">
         <v>6106100000</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="59" t="s">
         <v>723</v>
       </c>
     </row>
@@ -24461,7 +24471,7 @@
       <c r="A7" s="8" t="n">
         <v>6106200000</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="59" t="s">
         <v>724</v>
       </c>
     </row>
@@ -24498,10 +24508,10 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="56" t="n">
+      <c r="A12" s="57" t="n">
         <v>6201</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="58" t="s">
         <v>729</v>
       </c>
     </row>
@@ -24538,10 +24548,10 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="56" t="n">
+      <c r="A17" s="57" t="n">
         <v>6202</v>
       </c>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="58" t="s">
         <v>734</v>
       </c>
     </row>
@@ -24594,10 +24604,10 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="56" t="n">
+      <c r="A24" s="57" t="n">
         <v>6302</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="58" t="s">
         <v>741</v>
       </c>
     </row>
@@ -24802,10 +24812,10 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="56" t="n">
+      <c r="A50" s="57" t="n">
         <v>4303</v>
       </c>
-      <c r="B50" s="57" t="s">
+      <c r="B50" s="58" t="s">
         <v>767</v>
       </c>
     </row>
@@ -24866,10 +24876,10 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="56" t="n">
+      <c r="A58" s="57" t="n">
         <v>3303</v>
       </c>
-      <c r="B58" s="59" t="s">
+      <c r="B58" s="60" t="s">
         <v>775</v>
       </c>
     </row>
@@ -24890,10 +24900,10 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="56" t="n">
+      <c r="A61" s="57" t="n">
         <v>4011</v>
       </c>
-      <c r="B61" s="57" t="s">
+      <c r="B61" s="58" t="s">
         <v>778</v>
       </c>
     </row>
@@ -24962,10 +24972,10 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="56" t="n">
+      <c r="A70" s="57" t="n">
         <v>6401</v>
       </c>
-      <c r="B70" s="57" t="s">
+      <c r="B70" s="58" t="s">
         <v>787</v>
       </c>
     </row>
@@ -25002,10 +25012,10 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="56" t="n">
+      <c r="A75" s="57" t="n">
         <v>6402</v>
       </c>
-      <c r="B75" s="57" t="s">
+      <c r="B75" s="58" t="s">
         <v>792</v>
       </c>
     </row>
@@ -25130,10 +25140,10 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="56" t="n">
+      <c r="A91" s="57" t="n">
         <v>6403</v>
       </c>
-      <c r="B91" s="57" t="s">
+      <c r="B91" s="58" t="s">
         <v>807</v>
       </c>
     </row>
@@ -25298,7 +25308,7 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="60" t="n">
+      <c r="A112" s="61" t="n">
         <v>6403910500</v>
       </c>
       <c r="B112" s="7" t="s">
@@ -25306,7 +25316,7 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="60" t="n">
+      <c r="A113" s="61" t="n">
         <v>6403911100</v>
       </c>
       <c r="B113" s="7" t="s">
@@ -25458,10 +25468,10 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="56" t="n">
+      <c r="A132" s="57" t="n">
         <v>6404</v>
       </c>
-      <c r="B132" s="57" t="s">
+      <c r="B132" s="58" t="s">
         <v>848</v>
       </c>
     </row>
@@ -25506,10 +25516,10 @@
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="56" t="n">
+      <c r="A138" s="57" t="n">
         <v>6405</v>
       </c>
-      <c r="B138" s="57" t="s">
+      <c r="B138" s="58" t="s">
         <v>854</v>
       </c>
     </row>
